--- a/downloaded_files/SBES150_Lecture-35343.xlsx
+++ b/downloaded_files/SBES150_Lecture-35343.xlsx
@@ -1553,11 +1553,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : ----- Time : Wednesday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : ----- Time : Wednesday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : ----- Time : Wednesday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/SBES150_Lecture-35343.xlsx
+++ b/downloaded_files/SBES150_Lecture-35343.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
   </x:si>
   <x:si>
+    <x:t>1230151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حمزة يونس حمزة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed hamza younes hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240043</x:t>
   </x:si>
   <x:si>
@@ -67,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed attay kamal kamalelden</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسراء محمد ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4240007</x:t>
@@ -371,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -681,7 +699,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.370625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.390625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -826,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6685705208</x:v>
+        <x:v>45927.4183373495</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6651039005</x:v>
+        <x:v>45907.6685705208</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6667452546</x:v>
+        <x:v>45907.6651039005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6757808681</x:v>
+        <x:v>45927.4175478009</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45907.6667452546</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45907.6757808681</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6670064815</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45907.4149654745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.6670064815</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1565,70 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.4152314005</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6650637384</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES150_Lecture-35343.xlsx
+++ b/downloaded_files/SBES150_Lecture-35343.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Hamza Osman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فرح محمد عشري بخيت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farah Mohamed Ashry Bekhet</x:t>
   </x:si>
   <x:si>
     <x:t>1210374</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45929.5900081829</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.4151895486</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.6650637384</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES150_Lecture-35343.xlsx
+++ b/downloaded_files/SBES150_Lecture-35343.xlsx
@@ -1676,11 +1676,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : ----- Time : Wednesday(15:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : [18101]18101-45-الجيزة الرئيسي Time : Wednesday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : ----- Time : Wednesday(15:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : [18101]18101-45-الجيزة الرئيسي Time : Wednesday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : ----- Time : Wednesday(15:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Database Systems for Medical Data (SBES150) Location : [18101]18101-45-الجيزة الرئيسي Time : Wednesday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
